--- a/POSS.xlsx
+++ b/POSS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trunglt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NXCLOUD\PROJECTS\MANAGER-NXPOS\NEW_CMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Store" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="349">
   <si>
     <t>Admin</t>
   </si>
@@ -285,12 +286,6 @@
     <t>url_view</t>
   </si>
   <si>
-    <t>portal</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
     <t>23 tables</t>
   </si>
   <si>
@@ -378,9 +373,6 @@
     <t>shift_detail_id</t>
   </si>
   <si>
-    <t>receive_cash</t>
-  </si>
-  <si>
     <t>UserActivity</t>
   </si>
   <si>
@@ -426,9 +418,6 @@
     <t>HistoryCardMember</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>TableArea</t>
   </si>
   <si>
@@ -583,6 +572,507 @@
   </si>
   <si>
     <t>promotion_type</t>
+  </si>
+  <si>
+    <t>root_price</t>
+  </si>
+  <si>
+    <t>MenuDetail</t>
+  </si>
+  <si>
+    <t>menu_id</t>
+  </si>
+  <si>
+    <t>warehouse_id</t>
+  </si>
+  <si>
+    <t>importer_id</t>
+  </si>
+  <si>
+    <t>supplier_id</t>
+  </si>
+  <si>
+    <t>exporter_id</t>
+  </si>
+  <si>
+    <t>receive_info</t>
+  </si>
+  <si>
+    <t>total_point</t>
+  </si>
+  <si>
+    <t>type_card_id</t>
+  </si>
+  <si>
+    <t>current_balance</t>
+  </si>
+  <si>
+    <t>current_point</t>
+  </si>
+  <si>
+    <t>min_point</t>
+  </si>
+  <si>
+    <t>max_point</t>
+  </si>
+  <si>
+    <t>color_default</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>current_bill</t>
+  </si>
+  <si>
+    <t>has_portal</t>
+  </si>
+  <si>
+    <t>adjustmenter_id</t>
+  </si>
+  <si>
+    <t>material_id</t>
+  </si>
+  <si>
+    <t>adjustment_total</t>
+  </si>
+  <si>
+    <t>system_quantity</t>
+  </si>
+  <si>
+    <t>curent_quantity</t>
+  </si>
+  <si>
+    <t>adjustment_quantity</t>
+  </si>
+  <si>
+    <t>InvoicePortal</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>55 tables</t>
+  </si>
+  <si>
+    <t>total_money</t>
+  </si>
+  <si>
+    <t>time_send</t>
+  </si>
+  <si>
+    <t>user_send</t>
+  </si>
+  <si>
+    <t>status_send</t>
+  </si>
+  <si>
+    <t>acreage</t>
+  </si>
+  <si>
+    <t>floor_id</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>price_by_day</t>
+  </si>
+  <si>
+    <t>price_by_hour</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>PrinterGroup</t>
+  </si>
+  <si>
+    <t>BackupDB</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>SupplierContact</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Supplier_material</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Salary_shift</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>total_days</t>
+  </si>
+  <si>
+    <t>total_hours</t>
+  </si>
+  <si>
+    <t>total_tips</t>
+  </si>
+  <si>
+    <t>total_error</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>EstimateDetail</t>
+  </si>
+  <si>
+    <t>lead_id</t>
+  </si>
+  <si>
+    <t>estimate_id</t>
+  </si>
+  <si>
+    <t>vendor_id</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>RoomImage</t>
+  </si>
+  <si>
+    <t>ChatMessage</t>
+  </si>
+  <si>
+    <t>ChatGroup</t>
+  </si>
+  <si>
+    <t>sender_id</t>
+  </si>
+  <si>
+    <t>receiver_id</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>ChatGroupMessage</t>
+  </si>
+  <si>
+    <t>RegisterUsing</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>asigned_id</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>updated_by</t>
+  </si>
+  <si>
+    <t>AdmnEmails</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>converted_at</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>viewed</t>
+  </si>
+  <si>
+    <t>ChatGroupMember</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>BlockDomain</t>
+  </si>
+  <si>
+    <t>BlockIp</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>mst</t>
+  </si>
+  <si>
+    <t>ChatMessageSetting</t>
+  </si>
+  <si>
+    <t>blocked, background, notify, sound</t>
+  </si>
+  <si>
+    <t>type: drink, food, combo, other</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>total_ship</t>
+  </si>
+  <si>
+    <t>ship_id</t>
+  </si>
+  <si>
+    <t>BillShip</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>total_owe</t>
+  </si>
+  <si>
+    <t>total_importer</t>
+  </si>
+  <si>
+    <t>total_order</t>
+  </si>
+  <si>
+    <t>last_order</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>cmnd</t>
+  </si>
+  <si>
+    <t>MaterialGroup</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>total_guest</t>
+  </si>
+  <si>
+    <t>ProductMaterial</t>
+  </si>
+  <si>
+    <t>WarehouseMaterial</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>total_tax</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>deposit_amount</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>time_using</t>
+  </si>
+  <si>
+    <t>date_using</t>
+  </si>
+  <si>
+    <t>BookingDetail</t>
+  </si>
+  <si>
+    <t>booking_id</t>
+  </si>
+  <si>
+    <t>type: product | service</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>favourite</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>RecipeProduct</t>
+  </si>
+  <si>
+    <t>RecipeService</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>order_type:T,D,H</t>
+  </si>
+  <si>
+    <t>apply_for: all, member</t>
+  </si>
+  <si>
+    <t>formality: bill, product, service</t>
+  </si>
+  <si>
+    <t>total_using</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>basic_salary</t>
+  </si>
+  <si>
+    <t>type: company, personal</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>invoice_type:0,1,2</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>expire</t>
+  </si>
+  <si>
+    <t>store_to</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>CheckInService</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>condition_price_si</t>
+  </si>
+  <si>
+    <t>PromotionGroup</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>default_currency</t>
+  </si>
+  <si>
+    <t>max_times: ? month</t>
+  </si>
+  <si>
+    <t>max_order: ?</t>
+  </si>
+  <si>
+    <t>max_users: ?</t>
+  </si>
+  <si>
+    <t>support_device: web, mobile, ipad</t>
+  </si>
+  <si>
+    <t>verify_code</t>
+  </si>
+  <si>
+    <t>expired_code</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>PostGroup</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>type_work: shift | full</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>quantity_warning</t>
+  </si>
+  <si>
+    <t>times_warning</t>
+  </si>
+  <si>
+    <t>channel_warning</t>
   </si>
 </sst>
 </file>
@@ -613,7 +1103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +1113,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,15 +1186,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -938,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K9"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,47 +1500,49 @@
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.90625" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -998,11 +1551,14 @@
       <c r="K3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1039,8 +1595,11 @@
       <c r="L4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1077,8 +1636,11 @@
       <c r="L5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1663,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
@@ -1115,8 +1677,11 @@
       <c r="L6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1150,11 +1715,14 @@
       <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1191,8 +1759,11 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1229,8 +1800,11 @@
       <c r="L9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1243,10 +1817,10 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
@@ -1264,8 +1838,11 @@
       <c r="L10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1293,8 +1870,11 @@
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1322,25 +1902,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1355,17 +1935,20 @@
       <c r="I15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1985,11 @@
       <c r="L16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1422,8 +2008,8 @@
       <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" t="s">
-        <v>3</v>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>65</v>
@@ -1431,7 +2017,7 @@
       <c r="I17" t="s">
         <v>48</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K17" t="s">
@@ -1440,8 +2026,11 @@
       <c r="L17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +2050,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
@@ -1469,8 +2058,8 @@
       <c r="I18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J18" t="s">
-        <v>78</v>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
@@ -1478,8 +2067,11 @@
       <c r="L18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1499,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
         <v>7</v>
@@ -1507,8 +2099,8 @@
       <c r="I19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -1516,8 +2108,11 @@
       <c r="L19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1537,16 +2132,16 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" t="s">
-        <v>48</v>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
@@ -1554,8 +2149,11 @@
       <c r="L20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1568,23 +2166,23 @@
       <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
@@ -1592,8 +2190,11 @@
       <c r="L21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1604,25 +2205,28 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -1633,13 +2237,13 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
         <v>84</v>
@@ -1650,8 +2254,11 @@
       <c r="L23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1661,8 +2268,14 @@
       <c r="D24" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="F24" t="s">
+        <v>338</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -1670,70 +2283,269 @@
       <c r="K24" t="s">
         <v>12</v>
       </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
       <c r="I25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
       </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
       <c r="I26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="I28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
       <c r="I29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
       <c r="I30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
       <c r="I31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
       <c r="I32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -1744,95 +2556,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:S59"/>
+  <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1890,8 +2725,20 @@
       <c r="S4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1905,170 +2752,206 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
+        <v>106</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>228</v>
+      </c>
+      <c r="N7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2082,111 +2965,135 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="V8" t="s">
         <v>19</v>
       </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="W8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
+        <v>216</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="s">
         <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2194,236 +3101,347 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>98</v>
+        <v>17</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="W12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
         <v>113</v>
       </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="F17" t="s">
+        <v>305</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="M18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="O18" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2445,6 +3463,12 @@
       <c r="G19" t="s">
         <v>1</v>
       </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
       <c r="J19" t="s">
         <v>1</v>
       </c>
@@ -2460,9 +3484,48 @@
       <c r="N19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
@@ -2472,34 +3535,82 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="J20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>48</v>
       </c>
-      <c r="L20" t="s">
-        <v>163</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>287</v>
+      </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
@@ -2510,31 +3621,79 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="U21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -2548,28 +3707,76 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
         <v>48</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P22" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2588,23 +3795,71 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T23" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
@@ -2621,25 +3876,67 @@
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>71</v>
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" t="s">
         <v>18</v>
       </c>
-      <c r="N24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="O24" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V24" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2650,25 +3947,61 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" t="s">
-        <v>72</v>
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>152</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>148</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" t="s">
+        <v>17</v>
+      </c>
+      <c r="T25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
@@ -2678,133 +4011,284 @@
       <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="J26" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>77</v>
+      </c>
+      <c r="S26" t="s">
+        <v>77</v>
+      </c>
+      <c r="T26" t="s">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="J27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" t="s">
+        <v>160</v>
+      </c>
+      <c r="N27" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>287</v>
+      </c>
+      <c r="R27" t="s">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>329</v>
+      </c>
+      <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T28" t="s">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" t="s">
+        <v>165</v>
+      </c>
+      <c r="R29" t="s">
+        <v>178</v>
+      </c>
+      <c r="S29" t="s">
+        <v>178</v>
+      </c>
+      <c r="T29" t="s">
+        <v>160</v>
+      </c>
+      <c r="U29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" t="s">
+        <v>242</v>
+      </c>
+      <c r="U30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>158</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" t="s">
+        <v>7</v>
+      </c>
+      <c r="U31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="R32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T32" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>313</v>
+      </c>
+      <c r="R33" t="s">
+        <v>294</v>
+      </c>
+      <c r="S33" t="s">
+        <v>187</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>211</v>
+      </c>
+      <c r="R34" t="s">
+        <v>295</v>
+      </c>
+      <c r="S34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
-        <v>160</v>
-      </c>
-      <c r="M30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>322</v>
+      </c>
+      <c r="S35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2814,219 +4298,1411 @@
       <c r="C36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="S36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="S37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>73</v>
+        <v>151</v>
+      </c>
+      <c r="K38" t="s">
+        <v>314</v>
+      </c>
+      <c r="S38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" t="s">
+        <v>1</v>
+      </c>
+      <c r="X41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T42" t="s">
+        <v>48</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" t="s">
+        <v>51</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" t="s">
+        <v>170</v>
+      </c>
+      <c r="O44" t="s">
+        <v>170</v>
+      </c>
+      <c r="P44" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U44" t="s">
+        <v>17</v>
+      </c>
+      <c r="V44" t="s">
+        <v>7</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X44" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N45" t="s">
+        <v>152</v>
+      </c>
+      <c r="O45" t="s">
+        <v>152</v>
+      </c>
+      <c r="P45" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s">
+        <v>12</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="U45" t="s">
+        <v>7</v>
+      </c>
+      <c r="V45" t="s">
+        <v>12</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>172</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>78</v>
+      </c>
+      <c r="M46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T46" t="s">
+        <v>17</v>
+      </c>
+      <c r="U46" t="s">
+        <v>12</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W46" t="s">
+        <v>48</v>
+      </c>
+      <c r="X46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>323</v>
+      </c>
+      <c r="O47" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="T47" t="s">
+        <v>78</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
+        <v>201</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>324</v>
+      </c>
+      <c r="P48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>7</v>
+      </c>
+      <c r="R48" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" t="s">
+        <v>7</v>
+      </c>
+      <c r="O49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>95</v>
+      </c>
+      <c r="R49" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" t="s">
+        <v>7</v>
+      </c>
+      <c r="W49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" t="s">
+        <v>49</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>12</v>
+      </c>
+      <c r="R50" t="s">
+        <v>17</v>
+      </c>
+      <c r="T50" t="s">
+        <v>178</v>
+      </c>
+      <c r="W50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
         <v>76</v>
       </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R51" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
       <c r="B52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>282</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>283</v>
+      </c>
+      <c r="W53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>284</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>285</v>
+      </c>
+      <c r="W55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>319</v>
+      </c>
+      <c r="W56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>294</v>
+      </c>
+      <c r="W57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>284</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D59" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L59" t="s">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" t="s">
+        <v>244</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" t="s">
+        <v>160</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>271</v>
+      </c>
+      <c r="G61" t="s">
+        <v>219</v>
+      </c>
+      <c r="H61" t="s">
+        <v>303</v>
+      </c>
+      <c r="I61" t="s">
+        <v>203</v>
+      </c>
+      <c r="J61" t="s">
+        <v>203</v>
+      </c>
+      <c r="K61" t="s">
+        <v>242</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" t="s">
+        <v>170</v>
+      </c>
+      <c r="K62" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>320</v>
+      </c>
+      <c r="G63" t="s">
+        <v>242</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" t="s">
+        <v>219</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D64" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" t="s">
+        <v>291</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>339</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>340</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" t="s">
+        <v>298</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>299</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="U26:U30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/POSS.xlsx
+++ b/POSS.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin" sheetId="1" r:id="rId1"/>
-    <sheet name="Store" sheetId="2" r:id="rId2"/>
+    <sheet name="module admin" sheetId="3" r:id="rId1"/>
+    <sheet name="module store" sheetId="4" r:id="rId2"/>
+    <sheet name="Admin" sheetId="1" r:id="rId3"/>
+    <sheet name="Store" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="442">
   <si>
     <t>Admin</t>
   </si>
@@ -265,9 +266,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>invoice_id</t>
-  </si>
-  <si>
     <t>store_id</t>
   </si>
   <si>
@@ -286,9 +284,6 @@
     <t>url_view</t>
   </si>
   <si>
-    <t>23 tables</t>
-  </si>
-  <si>
     <t>Store</t>
   </si>
   <si>
@@ -721,9 +716,6 @@
     <t>position</t>
   </si>
   <si>
-    <t>Supplier_material</t>
-  </si>
-  <si>
     <t>Overtime</t>
   </si>
   <si>
@@ -832,15 +824,6 @@
     <t>blocked</t>
   </si>
   <si>
-    <t>BlockDomain</t>
-  </si>
-  <si>
-    <t>BlockIp</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
     <t>mst</t>
   </si>
   <si>
@@ -1073,6 +1056,305 @@
   </si>
   <si>
     <t>channel_warning</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>request_id</t>
+  </si>
+  <si>
+    <t>total_item</t>
+  </si>
+  <si>
+    <t>PurchaseDetail</t>
+  </si>
+  <si>
+    <t>purchase_id</t>
+  </si>
+  <si>
+    <t>total_vat</t>
+  </si>
+  <si>
+    <t>vat_value</t>
+  </si>
+  <si>
+    <t>SupplierMaterial</t>
+  </si>
+  <si>
+    <t>SupplierGroup</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>yêu cầu mua hàng</t>
+  </si>
+  <si>
+    <t>consignment</t>
+  </si>
+  <si>
+    <t>consignment (lô hàng)</t>
+  </si>
+  <si>
+    <t>warehouse_export</t>
+  </si>
+  <si>
+    <t>warehouse_import</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>Quản lý admins</t>
+  </si>
+  <si>
+    <t>Danh sách admins</t>
+  </si>
+  <si>
+    <t>Nhóm admins</t>
+  </si>
+  <si>
+    <t>Cài đặt</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>Nhật ký hoạt động</t>
+  </si>
+  <si>
+    <t>Quản lý cửa hàng</t>
+  </si>
+  <si>
+    <t>Danh sách cửa hàng</t>
+  </si>
+  <si>
+    <t>Danh sách nhân viên</t>
+  </si>
+  <si>
+    <t>Danh sách hóa đơn</t>
+  </si>
+  <si>
+    <t>Phân quyền mẫu</t>
+  </si>
+  <si>
+    <t>Quản lý tài chính</t>
+  </si>
+  <si>
+    <t>Đơn vị hành chánh</t>
+  </si>
+  <si>
+    <t>Cài đặt khác</t>
+  </si>
+  <si>
+    <t>PostFavourite</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>Quản lý bài viết</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Thông tin dịch vụ</t>
+  </si>
+  <si>
+    <t>Lịch sử thanh toán</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Cổng thanh toán</t>
+  </si>
+  <si>
+    <t>Đơn vị phát hành hóa đơn</t>
+  </si>
+  <si>
+    <t>Danh sách bài viết</t>
+  </si>
+  <si>
+    <t>Danh mục bài viết</t>
+  </si>
+  <si>
+    <t>Lịch sử yêu thích</t>
+  </si>
+  <si>
+    <t>Danh sách tỉnh thành</t>
+  </si>
+  <si>
+    <t>Danh sách quận huyện</t>
+  </si>
+  <si>
+    <t>Danh sách phường xã</t>
+  </si>
+  <si>
+    <t>Thông tin đăng ký mới</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Quyền</t>
+  </si>
+  <si>
+    <t>Quyền con</t>
+  </si>
+  <si>
+    <t>Chi tiết quyền</t>
+  </si>
+  <si>
+    <t>Backup dữ liệu</t>
+  </si>
+  <si>
+    <t>Quản lý dịch vụ</t>
+  </si>
+  <si>
+    <t>Danh sách dịch vụ</t>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <t>Danh sách cửa hàng đã theo dõi</t>
+  </si>
+  <si>
+    <t>- Kích hoạt đăng nhập 2 lớp
+- Tự động gửi thông tin quản lý về email khi tạo mới tài khoản
+- Tự động khóa tài khoản khi đến hạn</t>
+  </si>
+  <si>
+    <t>Danh sách khu vực</t>
+  </si>
+  <si>
+    <t>Danh sách cửa hàng quản lý</t>
+  </si>
+  <si>
+    <t>AdminStoreFollow</t>
+  </si>
+  <si>
+    <t>Quyền mặc định</t>
+  </si>
+  <si>
+    <t>Vai trò mặc định</t>
+  </si>
+  <si>
+    <t>Vai trò</t>
+  </si>
+  <si>
+    <t>Xem | sửa | xóa | Phân quyền</t>
+  </si>
+  <si>
+    <t>Xem | Cập nhật</t>
+  </si>
+  <si>
+    <t>Xem | sửa | xóa | Phân quyền | Cài đặt | Thống kê</t>
+  </si>
+  <si>
+    <t>Danh sách đăng ký</t>
+  </si>
+  <si>
+    <t>Xem | sửa | xóa | Tạo</t>
+  </si>
+  <si>
+    <t>Xem | sửa | xóa | Tạo | Thống kê</t>
+  </si>
+  <si>
+    <t>Cửa hàng đang sử dụng</t>
+  </si>
+  <si>
+    <t>Xem | sửa | xóa | Tạo | Thống kê | Phân quyền</t>
+  </si>
+  <si>
+    <t>Xem | xóa | Tạo</t>
+  </si>
+  <si>
+    <t>Xem | xóa</t>
+  </si>
+  <si>
+    <t>Xem chung | Xem riêng | sửa | xóa | Tạo | Phân quyền | Cài đặt  | Thống kê</t>
+  </si>
+  <si>
+    <t>Xem</t>
+  </si>
+  <si>
+    <t>Cấu hình email</t>
+  </si>
+  <si>
+    <t>BlockVendor</t>
+  </si>
+  <si>
+    <t>Đối tượng bị khóa (ip, domain)</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>assigned_id</t>
+  </si>
+  <si>
+    <t>33 tables</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>AdminStoreService</t>
+  </si>
+  <si>
+    <t>max_orders: ?</t>
+  </si>
+  <si>
+    <t>date_convert</t>
+  </si>
+  <si>
+    <t>AdminLead</t>
+  </si>
+  <si>
+    <t>AdminCustomer</t>
+  </si>
+  <si>
+    <t>Khách hàng tiềm năng</t>
+  </si>
+  <si>
+    <t>Danh sách khách hàng</t>
+  </si>
+  <si>
+    <t>AdminEmail</t>
+  </si>
+  <si>
+    <t>public_date</t>
+  </si>
+  <si>
+    <t>identity_card</t>
+  </si>
+  <si>
+    <t>tax_code</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+  </si>
+  <si>
+    <t>bank_address</t>
+  </si>
+  <si>
+    <t>bank_branch</t>
+  </si>
+  <si>
+    <t>bank_account_number</t>
+  </si>
+  <si>
+    <t>bank_account_name</t>
+  </si>
+  <si>
+    <t>AdminContact</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1182,11 +1464,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1198,11 +1517,60 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1489,10 +1857,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="11"/>
+    <col min="2" max="2" width="36.7265625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="A18:A34"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A10:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,13 +2319,13 @@
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.90625" customWidth="1"/>
-    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
@@ -1514,7 +2333,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1555,7 +2374,7 @@
         <v>70</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1630,11 +2449,11 @@
       <c r="J5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="M5" t="s">
         <v>48</v>
@@ -1672,10 +2491,10 @@
         <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
@@ -1713,10 +2532,10 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1754,13 +2573,13 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -1795,10 +2614,10 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>
@@ -1823,8 +2642,9 @@
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
+      <c r="G10" t="e">
+        <f>A15:F15</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H10" t="s">
         <v>39</v>
@@ -1835,8 +2655,11 @@
       <c r="J10" t="s">
         <v>49</v>
       </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1867,8 +2690,8 @@
       <c r="J11" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>13</v>
+      <c r="L11" t="s">
+        <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
@@ -1889,6 +2712,9 @@
       </c>
       <c r="J12" t="s">
         <v>51</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -1901,6 +2727,9 @@
       <c r="J13" t="s">
         <v>12</v>
       </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1927,7 +2756,7 @@
         <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>432</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>64</v>
@@ -1945,7 +2774,7 @@
         <v>69</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2009,7 +2838,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>65</v>
@@ -2018,7 +2847,7 @@
         <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
         <v>48</v>
@@ -2049,8 +2878,8 @@
       <c r="F18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
+      <c r="G18" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
@@ -2059,7 +2888,7 @@
         <v>79</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
@@ -2091,16 +2920,16 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2132,13 +2961,13 @@
         <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>65</v>
+      <c r="I20" t="s">
+        <v>71</v>
       </c>
       <c r="J20" t="s">
         <v>78</v>
@@ -2150,7 +2979,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -2170,16 +2999,16 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -2205,19 +3034,19 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
+        <v>329</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -2237,16 +3066,16 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
+        <v>426</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
@@ -2269,13 +3098,13 @@
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
+        <v>332</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="I24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -2297,8 +3126,11 @@
       <c r="F25" t="s">
         <v>7</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -2308,6 +3140,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>434</v>
+      </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
@@ -2319,6 +3154,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2328,26 +3166,35 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>268</v>
+        <v>419</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="I28" t="s">
         <v>78</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
@@ -2368,8 +3215,17 @@
       <c r="F29" t="s">
         <v>1</v>
       </c>
+      <c r="G29" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
       <c r="I29" t="s">
         <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -2380,19 +3236,28 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
+        <v>421</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -2400,13 +3265,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -2414,8 +3279,17 @@
       <c r="F31" t="s">
         <v>3</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
       <c r="I31" t="s">
         <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -2425,11 +3299,11 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>13</v>
+      <c r="C32" t="s">
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -2437,17 +3311,29 @@
       <c r="F32" t="s">
         <v>18</v>
       </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
       <c r="I32" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
@@ -2457,41 +3343,71 @@
       <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -2499,13 +3415,25 @@
       <c r="F36" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
       </c>
       <c r="E37" t="s">
         <v>12</v>
@@ -2513,39 +3441,266 @@
       <c r="F37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>334</v>
+      </c>
+      <c r="D42" t="s">
+        <v>422</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>239</v>
+      </c>
+      <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>434</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" t="s">
+        <v>434</v>
+      </c>
+      <c r="H50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" t="s">
+        <v>435</v>
+      </c>
+      <c r="H51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" t="s">
+        <v>436</v>
+      </c>
+      <c r="H52" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>440</v>
+      </c>
+      <c r="G53" t="s">
+        <v>437</v>
+      </c>
+      <c r="H53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
+        <v>438</v>
+      </c>
+      <c r="H54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G55" t="s">
+        <v>439</v>
+      </c>
+      <c r="H55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>440</v>
+      </c>
+      <c r="H56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2554,12 +3709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView topLeftCell="T35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2593,78 +3748,78 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -2758,31 +3913,31 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -2791,13 +3946,13 @@
         <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>2</v>
@@ -2806,7 +3961,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -2814,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -2841,19 +3996,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P6" t="s">
         <v>21</v>
@@ -2871,21 +4026,21 @@
         <v>3</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s">
         <v>17</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2912,19 +4067,19 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
@@ -2948,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -2968,7 +4123,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2980,10 +4135,10 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
         <v>78</v>
@@ -2992,10 +4147,10 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
@@ -3019,7 +4174,7 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -3039,7 +4194,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -3051,7 +4206,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -3063,10 +4218,10 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P9" t="s">
         <v>17</v>
@@ -3104,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -3113,10 +4268,10 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -3125,7 +4280,7 @@
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O10" t="s">
         <v>77</v>
@@ -3154,13 +4309,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -3172,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -3181,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -3201,13 +4356,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -3219,7 +4374,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -3228,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q12" t="s">
         <v>12</v>
@@ -3240,27 +4395,27 @@
         <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>13</v>
@@ -3275,12 +4430,12 @@
         <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -3301,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="W14" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -3321,7 +4476,7 @@
         <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -3349,13 +4504,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -3366,79 +4521,79 @@
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="M18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="P18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="T18" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -3535,40 +4690,40 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20" t="s">
         <v>48</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>65</v>
@@ -3583,19 +4738,19 @@
         <v>48</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>2</v>
@@ -3604,12 +4759,12 @@
         <v>2</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -3621,10 +4776,10 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -3633,19 +4788,19 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>2</v>
@@ -3654,45 +4809,45 @@
         <v>3</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q21" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -3707,7 +4862,7 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -3716,7 +4871,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
@@ -3725,7 +4880,7 @@
         <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
@@ -3737,16 +4892,16 @@
         <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
@@ -3767,15 +4922,15 @@
         <v>7</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -3787,7 +4942,7 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>3</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -3820,16 +4975,16 @@
         <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="S23" t="s">
+        <v>357</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -3838,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="W23" s="10" t="s">
         <v>50</v>
@@ -3847,13 +5002,13 @@
         <v>17</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Z23" t="s">
         <v>12</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
@@ -3870,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -3891,7 +5046,7 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>13</v>
@@ -3909,16 +5064,16 @@
         <v>7</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S24" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="T24" t="s">
         <v>73</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V24" t="s">
         <v>12</v>
@@ -3931,11 +5086,14 @@
       </c>
       <c r="Z24" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -3947,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -3965,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>13</v>
@@ -3980,27 +5138,30 @@
         <v>17</v>
       </c>
       <c r="S25" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="T25" t="s">
         <v>74</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="X25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -4009,7 +5170,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -4039,7 +5200,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="T26" t="s">
         <v>75</v>
@@ -4050,43 +5211,43 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s">
         <v>158</v>
       </c>
-      <c r="L27" t="s">
-        <v>160</v>
-      </c>
       <c r="N27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="R27" t="s">
         <v>78</v>
       </c>
       <c r="S27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s">
         <v>77</v>
@@ -4097,34 +5258,34 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>151</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="R28" t="s">
         <v>7</v>
       </c>
       <c r="S28" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s">
         <v>78</v>
@@ -4134,52 +5295,64 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>422</v>
+      </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="R29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S29" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="T29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s">
         <v>12</v>
       </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
       <c r="R30" t="s">
         <v>12</v>
       </c>
       <c r="S30" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="T30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="U30" t="s">
         <v>78</v>
@@ -4187,7 +5360,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s">
         <v>49</v>
@@ -4195,11 +5368,14 @@
       <c r="N31" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P31" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="R31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>13</v>
+      <c r="S31" t="s">
+        <v>12</v>
       </c>
       <c r="T31" t="s">
         <v>7</v>
@@ -4210,19 +5386,22 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="K32" t="s">
         <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>299</v>
+      </c>
+      <c r="P32" t="s">
+        <v>26</v>
       </c>
       <c r="R32" t="s">
         <v>49</v>
       </c>
-      <c r="S32" t="s">
-        <v>49</v>
+      <c r="S32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="T32" t="s">
         <v>12</v>
@@ -4233,16 +5412,19 @@
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="P33" t="s">
+        <v>7</v>
       </c>
       <c r="R33" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="S33" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>13</v>
@@ -4252,40 +5434,46 @@
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E34" s="1" t="s">
-        <v>13</v>
+      <c r="E34" t="s">
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="P34" t="s">
+        <v>12</v>
       </c>
       <c r="R34" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="S34" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" t="s">
-        <v>304</v>
+        <v>178</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="R35" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
@@ -4299,13 +5487,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="S36" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
@@ -4313,141 +5501,148 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="S37" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>301</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P38" s="1"/>
       <c r="S38" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="S39" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="N40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="R40" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -4527,58 +5722,58 @@
         <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M42" t="s">
         <v>48</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T42" t="s">
         <v>48</v>
@@ -4590,7 +5785,7 @@
         <v>3</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>3</v>
@@ -4610,16 +5805,16 @@
         <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -4628,7 +5823,7 @@
         <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
         <v>3</v>
@@ -4640,31 +5835,31 @@
         <v>48</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M43" t="s">
         <v>51</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>6</v>
@@ -4673,16 +5868,16 @@
         <v>17</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>17</v>
@@ -4693,13 +5888,13 @@
         <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>71</v>
@@ -4708,10 +5903,10 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -4723,22 +5918,22 @@
         <v>3</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="N44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>5</v>
@@ -4747,7 +5942,7 @@
         <v>7</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U44" t="s">
         <v>17</v>
@@ -4756,7 +5951,7 @@
         <v>7</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X44" t="s">
         <v>17</v>
@@ -4764,8 +5959,8 @@
       <c r="Y44" t="s">
         <v>26</v>
       </c>
-      <c r="Z44" t="s">
-        <v>3</v>
+      <c r="Z44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="AA44" t="s">
         <v>7</v>
@@ -4782,7 +5977,7 @@
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
         <v>72</v>
@@ -4794,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -4806,22 +6001,22 @@
         <v>17</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
         <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="s">
         <v>4</v>
@@ -4830,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="U45" t="s">
         <v>7</v>
@@ -4839,7 +6034,7 @@
         <v>12</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X45" t="s">
         <v>7</v>
@@ -4848,7 +6043,7 @@
         <v>7</v>
       </c>
       <c r="Z45" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AA45" t="s">
         <v>12</v>
@@ -4856,10 +6051,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -4868,10 +6063,10 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -4895,16 +6090,16 @@
         <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R46" t="s">
         <v>9</v>
@@ -4931,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="Z46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA46" s="1" t="s">
         <v>13</v>
@@ -4939,10 +6134,10 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -4951,10 +6146,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -4975,16 +6170,16 @@
         <v>12</v>
       </c>
       <c r="N47" t="s">
-        <v>323</v>
+        <v>169</v>
       </c>
       <c r="O47" t="s">
-        <v>323</v>
+        <v>169</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q47" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="R47" t="s">
         <v>6</v>
@@ -5004,16 +6199,16 @@
       <c r="Y47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z47" s="1" t="s">
-        <v>7</v>
+      <c r="Z47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>13</v>
@@ -5022,10 +6217,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
@@ -5034,7 +6229,7 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
@@ -5046,19 +6241,19 @@
         <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="O48" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="Q48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T48" t="s">
         <v>49</v>
@@ -5067,24 +6262,24 @@
         <v>4</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>12</v>
+        <v>255</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -5102,19 +6297,19 @@
         <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N49" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="O49" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="P49" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="Q49" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="R49" t="s">
         <v>7</v>
@@ -5126,18 +6321,18 @@
         <v>5</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>13</v>
+        <v>256</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -5161,36 +6356,39 @@
         <v>49</v>
       </c>
       <c r="N50" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="O50" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="P50" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q50" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="R50" t="s">
         <v>17</v>
       </c>
       <c r="T50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W50" t="s">
         <v>6</v>
       </c>
-      <c r="Z50" t="s">
-        <v>304</v>
+      <c r="Y50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -5202,7 +6400,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
@@ -5211,16 +6409,16 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="P51" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>12</v>
       </c>
       <c r="R51" t="s">
         <v>12</v>
@@ -5230,14 +6428,17 @@
       </c>
       <c r="W51" t="s">
         <v>17</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -5254,17 +6455,17 @@
       <c r="L52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>282</v>
+      <c r="N52" t="s">
+        <v>318</v>
+      </c>
+      <c r="O52" t="s">
+        <v>318</v>
+      </c>
+      <c r="P52" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>13</v>
@@ -5281,7 +6482,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -5290,10 +6491,19 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>311</v>
+      </c>
+      <c r="N53" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" t="s">
+        <v>7</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="W53" t="s">
         <v>12</v>
@@ -5304,19 +6514,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="N54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" t="s">
+        <v>17</v>
       </c>
       <c r="Q54" t="s">
-        <v>284</v>
+        <v>277</v>
+      </c>
+      <c r="S54" t="s">
+        <v>353</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>13</v>
@@ -5327,7 +6546,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -5336,71 +6555,116 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="N55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" t="s">
+        <v>12</v>
       </c>
       <c r="Q55" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="W55" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>13</v>
+      <c r="B56" t="s">
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E56" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>319</v>
+        <v>279</v>
+      </c>
+      <c r="S56" t="s">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
+      </c>
+      <c r="N57" t="s">
+        <v>354</v>
+      </c>
+      <c r="O57" t="s">
+        <v>355</v>
       </c>
       <c r="Q57" t="s">
-        <v>294</v>
+        <v>313</v>
+      </c>
+      <c r="S57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T57" t="s">
+        <v>347</v>
+      </c>
+      <c r="U57" t="s">
+        <v>3</v>
       </c>
       <c r="W57" t="s">
         <v>49</v>
@@ -5411,13 +6675,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G58" t="s">
         <v>1</v>
@@ -5437,8 +6701,20 @@
       <c r="L58" t="s">
         <v>1</v>
       </c>
+      <c r="Q58" t="s">
+        <v>288</v>
+      </c>
+      <c r="S58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s">
+        <v>148</v>
+      </c>
+      <c r="U58" t="s">
+        <v>17</v>
+      </c>
       <c r="W58" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
@@ -5446,121 +6722,151 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="S59" t="s">
+        <v>17</v>
+      </c>
+      <c r="T59" t="s">
+        <v>146</v>
+      </c>
+      <c r="U59" t="s">
+        <v>7</v>
       </c>
       <c r="W59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J60" t="s">
         <v>65</v>
       </c>
       <c r="K60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L60" t="s">
         <v>3</v>
       </c>
+      <c r="S60" t="s">
+        <v>344</v>
+      </c>
+      <c r="T60" t="s">
+        <v>168</v>
+      </c>
+      <c r="U60" t="s">
+        <v>12</v>
+      </c>
       <c r="W60" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>276</v>
+        <v>270</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
       </c>
       <c r="C61" t="s">
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
+      </c>
+      <c r="S61" t="s">
+        <v>7</v>
+      </c>
+      <c r="T61" t="s">
+        <v>17</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s">
         <v>3</v>
@@ -5568,19 +6874,25 @@
       <c r="L62" t="s">
         <v>12</v>
       </c>
+      <c r="S62" t="s">
+        <v>345</v>
+      </c>
+      <c r="T62" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -5592,24 +6904,30 @@
         <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="S63" t="s">
+        <v>305</v>
+      </c>
+      <c r="T63" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G64" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>13</v>
@@ -5620,8 +6938,14 @@
       <c r="K64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="S64" t="s">
+        <v>348</v>
+      </c>
+      <c r="T64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -5629,16 +6953,22 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="S65" t="s">
+        <v>12</v>
+      </c>
+      <c r="T65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -5646,60 +6976,75 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" t="s">
+        <v>322</v>
+      </c>
+      <c r="T67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
         <v>339</v>
       </c>
-      <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="K67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D68" t="s">
-        <v>340</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
-        <v>345</v>
-      </c>
       <c r="G69" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U26:U30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49:P53">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/POSS.xlsx
+++ b/POSS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module admin" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="502">
   <si>
     <t>Admin</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Ward</t>
-  </si>
-  <si>
-    <t>Area</t>
   </si>
   <si>
     <t>Service</t>
@@ -1306,9 +1303,6 @@
     <t>server_id</t>
   </si>
   <si>
-    <t>AdminStoreService</t>
-  </si>
-  <si>
     <t>max_orders: ?</t>
   </si>
   <si>
@@ -1330,9 +1324,6 @@
     <t>AdminEmail</t>
   </si>
   <si>
-    <t>public_date</t>
-  </si>
-  <si>
     <t>identity_card</t>
   </si>
   <si>
@@ -1355,6 +1346,195 @@
   </si>
   <si>
     <t>AdminContact</t>
+  </si>
+  <si>
+    <t>SubDomain</t>
+  </si>
+  <si>
+    <t>sub_domain</t>
+  </si>
+  <si>
+    <t>active_date</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>rgm</t>
+  </si>
+  <si>
+    <t>expire_date</t>
+  </si>
+  <si>
+    <t>StoreKey</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Báo cáo doanh thu</t>
+  </si>
+  <si>
+    <t>Báo cáo tài chính</t>
+  </si>
+  <si>
+    <t>Doanh thu tổng</t>
+  </si>
+  <si>
+    <t>Doanh thu theo cửa hàng</t>
+  </si>
+  <si>
+    <t>Doanh thu theo dịch vụ</t>
+  </si>
+  <si>
+    <t>Doanh thu theo cổng thanh toán</t>
+  </si>
+  <si>
+    <t>Doanh thu theo đơn vị thanh toán</t>
+  </si>
+  <si>
+    <t>Doanh thu theo phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Thống kê thu chi</t>
+  </si>
+  <si>
+    <t>Thống kê lãi lổ</t>
+  </si>
+  <si>
+    <t>Doanh thu theo khu vực</t>
+  </si>
+  <si>
+    <t>Doanh thu theo tỉnh thành</t>
+  </si>
+  <si>
+    <t>Doanh thu theo khách hàng</t>
+  </si>
+  <si>
+    <t>Tổng hóa đơn</t>
+  </si>
+  <si>
+    <t>Hóa đơn đã phát hành</t>
+  </si>
+  <si>
+    <t>Thống kê hóa đơn</t>
+  </si>
+  <si>
+    <t>Thống kê hóa đơn theo đơn vị phát hành</t>
+  </si>
+  <si>
+    <t>Thống kê đăng ký sử dụng</t>
+  </si>
+  <si>
+    <t>Đăng ký mới tổng</t>
+  </si>
+  <si>
+    <t>Đăng ký mới theo nguồn</t>
+  </si>
+  <si>
+    <t>Đã chuyển đổi</t>
+  </si>
+  <si>
+    <t>Đăng ký mới theo khu vực</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Danh sách liên hệ</t>
+  </si>
+  <si>
+    <t>Xem chung | Xem riêng</t>
+  </si>
+  <si>
+    <t>Thiết lập sơ đồ bàn cho mỗi tầng</t>
+  </si>
+  <si>
+    <t>status_using</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>StoreType</t>
+  </si>
+  <si>
+    <t>AttributeGroup</t>
+  </si>
+  <si>
+    <t>ProductAttribute</t>
+  </si>
+  <si>
+    <t>ProductAttributeDetail</t>
+  </si>
+  <si>
+    <t>attribute_id</t>
+  </si>
+  <si>
+    <t>PromotionPartner</t>
+  </si>
+  <si>
+    <t>PromotionPartnerDetail</t>
+  </si>
+  <si>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>total_revenue</t>
+  </si>
+  <si>
+    <t>total_orders</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>AdminOrderStore</t>
+  </si>
+  <si>
+    <t>AdminArea</t>
+  </si>
+  <si>
+    <t>AdminServiceUsing</t>
+  </si>
+  <si>
+    <t>AdminServiceUsingStore</t>
+  </si>
+  <si>
+    <t>using_id</t>
+  </si>
+  <si>
+    <t>ProductUnit</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>root_id</t>
+  </si>
+  <si>
+    <t>StoreArea</t>
+  </si>
+  <si>
+    <t>admin_area_id</t>
+  </si>
+  <si>
+    <t>CustomerStore</t>
+  </si>
+  <si>
+    <t>business_type_id</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>UserStore</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1535,26 +1715,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1857,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1875,402 +2061,602 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>393</v>
-      </c>
       <c r="E1" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13" t="s">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C14" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>368</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>369</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>413</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
         <v>372</v>
       </c>
+      <c r="C25" s="25" t="s">
+        <v>371</v>
+      </c>
       <c r="D25" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="13" t="s">
-        <v>388</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="13" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="13" t="s">
-        <v>418</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
-        <v>407</v>
-      </c>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="E52" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="23">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A35:A52"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B35:B52"/>
     <mergeCell ref="B25:B34"/>
     <mergeCell ref="A18:A34"/>
     <mergeCell ref="C23:C24"/>
@@ -2278,14 +2664,6 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2297,21 +2675,30 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2326,14 +2713,14 @@
     <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2371,10 +2758,10 @@
         <v>52</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -2453,7 +2840,7 @@
         <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
         <v>48</v>
@@ -2576,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -2728,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -2750,31 +3137,31 @@
         <v>60</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="M15" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -2841,13 +3228,13 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
         <v>48</v>
@@ -2879,16 +3266,16 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>3</v>
@@ -2926,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2967,10 +3354,10 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s">
         <v>18</v>
@@ -2979,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -2999,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -3008,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
@@ -3034,19 +3421,19 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -3066,16 +3453,16 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
@@ -3098,13 +3485,13 @@
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s">
         <v>49</v>
@@ -3130,7 +3517,7 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -3141,13 +3528,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>13</v>
@@ -3155,45 +3542,51 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>425</v>
+        <v>490</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -3216,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -3225,21 +3618,27 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>499</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -3248,15 +3647,21 @@
         <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" t="s">
+        <v>492</v>
+      </c>
+      <c r="L30" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3265,13 +3670,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -3280,16 +3685,22 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -3303,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -3318,10 +3729,10 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3344,10 +3755,11 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3364,18 +3776,27 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="J34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>13</v>
@@ -3384,7 +3805,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -3395,16 +3816,25 @@
       <c r="H35" t="s">
         <v>1</v>
       </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
       <c r="J35" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -3416,21 +3846,30 @@
         <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="I36" t="s">
+        <v>440</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -3442,36 +3881,51 @@
         <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>95</v>
+      <c r="I38" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3485,10 +3939,16 @@
         <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>441</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3496,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -3504,16 +3964,19 @@
       <c r="H40" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>433</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -3521,13 +3984,16 @@
       <c r="H41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -3536,12 +4002,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -3550,12 +4016,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -3564,9 +4030,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" t="s">
         <v>7</v>
@@ -3575,7 +4041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>9</v>
       </c>
@@ -3586,9 +4052,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -3597,12 +4063,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
@@ -3610,7 +4076,7 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -3621,46 +4087,46 @@
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H50" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H53" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.35">
@@ -3668,26 +4134,26 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H54" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H55" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H56" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.35">
@@ -3699,8 +4165,16 @@
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
       <c r="H58" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G59" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -3711,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView topLeftCell="T35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView tabSelected="1" topLeftCell="G67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3722,11 +4196,11 @@
     <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -3748,78 +4222,78 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -3913,31 +4387,31 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -3946,13 +4420,13 @@
         <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>2</v>
@@ -3961,7 +4435,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -3969,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -3996,19 +4470,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P6" t="s">
         <v>21</v>
@@ -4026,21 +4500,21 @@
         <v>3</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
         <v>17</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -4067,19 +4541,19 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
@@ -4103,7 +4577,7 @@
         <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -4123,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -4135,22 +4609,22 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
         <v>224</v>
       </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>225</v>
-      </c>
       <c r="O8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
@@ -4174,7 +4648,7 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -4194,7 +4668,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -4206,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -4218,10 +4692,10 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P9" t="s">
         <v>17</v>
@@ -4259,7 +4733,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -4268,10 +4742,10 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -4280,10 +4754,10 @@
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
         <v>7</v>
@@ -4309,13 +4783,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -4327,7 +4801,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -4336,7 +4810,7 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -4356,13 +4830,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -4374,7 +4848,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -4383,7 +4857,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q12" t="s">
         <v>12</v>
@@ -4395,27 +4869,27 @@
         <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>13</v>
@@ -4424,18 +4898,18 @@
         <v>13</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s">
         <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -4456,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="W14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -4476,7 +4950,7 @@
         <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -4504,13 +4978,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -4521,79 +4995,79 @@
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="Q18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="T18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="V18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="W18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="Y18" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -4690,43 +5164,43 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
         <v>48</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>48</v>
@@ -4738,19 +5212,19 @@
         <v>48</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>2</v>
@@ -4759,12 +5233,12 @@
         <v>2</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>281</v>
+      <c r="A21" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -4776,10 +5250,10 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -4788,19 +5262,19 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>2</v>
@@ -4809,45 +5283,45 @@
         <v>3</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q21" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>265</v>
+      <c r="A22" t="s">
+        <v>283</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -4862,7 +5336,7 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -4871,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
@@ -4880,7 +5354,7 @@
         <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
@@ -4892,16 +5366,16 @@
         <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
@@ -4922,15 +5396,15 @@
         <v>7</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>284</v>
+      <c r="A23" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -4942,7 +5416,7 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -4975,16 +5449,16 @@
         <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -4993,7 +5467,7 @@
         <v>17</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W23" s="10" t="s">
         <v>50</v>
@@ -5002,18 +5476,18 @@
         <v>17</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z23" t="s">
         <v>12</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>65</v>
+      <c r="A24" t="s">
+        <v>324</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -5046,7 +5520,7 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>13</v>
@@ -5064,16 +5538,16 @@
         <v>7</v>
       </c>
       <c r="R24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="T24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V24" t="s">
         <v>12</v>
@@ -5117,13 +5591,13 @@
         <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>13</v>
@@ -5138,16 +5612,16 @@
         <v>17</v>
       </c>
       <c r="S25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>13</v>
@@ -5161,7 +5635,7 @@
         <v>326</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>432</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -5170,7 +5644,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -5182,31 +5656,31 @@
         <v>12</v>
       </c>
       <c r="K26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s">
         <v>72</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R26" t="s">
-        <v>77</v>
-      </c>
-      <c r="S26" t="s">
-        <v>17</v>
-      </c>
-      <c r="T26" t="s">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
@@ -5214,7 +5688,7 @@
         <v>327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -5223,144 +5697,147 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>328</v>
+        <v>421</v>
       </c>
       <c r="B28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R28" t="s">
         <v>7</v>
       </c>
       <c r="S28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
       </c>
       <c r="T29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" t="s">
+        <v>211</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" t="s">
+        <v>175</v>
+      </c>
+      <c r="T30" t="s">
+        <v>238</v>
+      </c>
+      <c r="U30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>497</v>
+      </c>
+      <c r="E31" t="s">
         <v>152</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L30" t="s">
-        <v>212</v>
-      </c>
-      <c r="N30" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1</v>
-      </c>
-      <c r="R30" t="s">
-        <v>12</v>
-      </c>
-      <c r="S30" t="s">
-        <v>176</v>
-      </c>
-      <c r="T30" t="s">
-        <v>239</v>
-      </c>
-      <c r="U30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
-        <v>153</v>
       </c>
       <c r="K31" t="s">
         <v>49</v>
@@ -5369,7 +5846,7 @@
         <v>13</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>13</v>
@@ -5385,14 +5862,17 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>499</v>
+      </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s">
         <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P32" t="s">
         <v>26</v>
@@ -5415,13 +5895,13 @@
         <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s">
         <v>7</v>
       </c>
       <c r="R33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S33" t="s">
         <v>49</v>
@@ -5438,42 +5918,40 @@
         <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P34" t="s">
         <v>12</v>
       </c>
       <c r="R34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>168</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P35" s="1"/>
       <c r="R35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
@@ -5487,13 +5965,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
@@ -5501,148 +5979,148 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P38" s="1"/>
       <c r="S38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="N40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="P40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q40" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="R40" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U40" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="W40" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -5719,61 +6197,61 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M42" t="s">
         <v>48</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T42" t="s">
         <v>48</v>
@@ -5785,7 +6263,7 @@
         <v>3</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>3</v>
@@ -5802,19 +6280,19 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -5823,7 +6301,7 @@
         <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
         <v>3</v>
@@ -5835,19 +6313,19 @@
         <v>48</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" t="s">
         <v>51</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>2</v>
@@ -5856,10 +6334,10 @@
         <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>6</v>
@@ -5868,16 +6346,16 @@
         <v>17</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>17</v>
@@ -5885,28 +6363,28 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -5918,19 +6396,19 @@
         <v>3</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="N44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q44" t="s">
         <v>3</v>
@@ -5942,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U44" t="s">
         <v>17</v>
@@ -5951,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X44" t="s">
         <v>17</v>
@@ -5968,7 +6446,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -5977,10 +6455,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -5989,7 +6467,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -6001,19 +6479,19 @@
         <v>17</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M45" t="s">
         <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q45" t="s">
         <v>4</v>
@@ -6025,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U45" t="s">
         <v>7</v>
@@ -6034,7 +6512,7 @@
         <v>12</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X45" t="s">
         <v>7</v>
@@ -6051,10 +6529,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -6063,10 +6541,10 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -6084,19 +6562,19 @@
         <v>18</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M46" t="s">
         <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="O46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q46" t="s">
         <v>5</v>
@@ -6134,7 +6612,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -6146,10 +6624,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -6170,13 +6648,13 @@
         <v>12</v>
       </c>
       <c r="N47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q47" t="s">
         <v>6</v>
@@ -6185,7 +6663,7 @@
         <v>6</v>
       </c>
       <c r="T47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>13</v>
@@ -6205,10 +6683,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>13</v>
@@ -6217,10 +6695,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H48" t="s">
         <v>7</v>
@@ -6229,7 +6707,7 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
@@ -6241,19 +6719,19 @@
         <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="Q48" t="s">
         <v>17</v>
       </c>
       <c r="R48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T48" t="s">
         <v>49</v>
@@ -6262,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>7</v>
@@ -6270,16 +6748,16 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -6297,13 +6775,13 @@
         <v>12</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P49" t="s">
         <v>49</v>
@@ -6321,7 +6799,7 @@
         <v>5</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Z49" t="s">
         <v>12</v>
@@ -6329,10 +6807,10 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -6356,22 +6834,22 @@
         <v>49</v>
       </c>
       <c r="N50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P50" t="s">
         <v>7</v>
       </c>
       <c r="Q50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R50" t="s">
         <v>17</v>
       </c>
       <c r="T50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W50" t="s">
         <v>6</v>
@@ -6385,10 +6863,10 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -6400,7 +6878,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
@@ -6409,10 +6887,10 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P51" t="s">
         <v>17</v>
@@ -6430,15 +6908,15 @@
         <v>17</v>
       </c>
       <c r="Z51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -6456,10 +6934,10 @@
         <v>13</v>
       </c>
       <c r="N52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P52" t="s">
         <v>12</v>
@@ -6482,7 +6960,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -6491,7 +6969,7 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N53" t="s">
         <v>7</v>
@@ -6503,7 +6981,7 @@
         <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W53" t="s">
         <v>12</v>
@@ -6511,19 +6989,22 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="H54" t="s">
+        <v>474</v>
       </c>
       <c r="N54" t="s">
         <v>17</v>
@@ -6532,10 +7013,10 @@
         <v>17</v>
       </c>
       <c r="Q54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>13</v>
@@ -6543,10 +7024,10 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -6555,7 +7036,7 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" t="s">
         <v>12</v>
@@ -6564,19 +7045,19 @@
         <v>12</v>
       </c>
       <c r="Q55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
@@ -6587,13 +7068,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>13</v>
@@ -6602,7 +7083,7 @@
         <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S56" t="s">
         <v>1</v>
@@ -6614,54 +7095,57 @@
         <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="K57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N57" t="s">
+        <v>353</v>
+      </c>
+      <c r="O57" t="s">
         <v>354</v>
       </c>
-      <c r="O57" t="s">
-        <v>355</v>
-      </c>
       <c r="Q57" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S57" t="s">
         <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U57" t="s">
         <v>3</v>
@@ -6675,13 +7159,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1</v>
       </c>
       <c r="G58" t="s">
         <v>1</v>
@@ -6702,19 +7189,19 @@
         <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S58" t="s">
         <v>3</v>
       </c>
       <c r="T58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U58" t="s">
         <v>17</v>
       </c>
       <c r="W58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
@@ -6722,116 +7209,125 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
-        <v>146</v>
+        <v>494</v>
       </c>
       <c r="U59" t="s">
         <v>7</v>
       </c>
       <c r="W59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s">
         <v>3</v>
       </c>
       <c r="S60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U60" t="s">
         <v>12</v>
       </c>
       <c r="W60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -6848,25 +7344,28 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K62" t="s">
         <v>3</v>
@@ -6875,24 +7374,27 @@
         <v>12</v>
       </c>
       <c r="S62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -6904,30 +7406,30 @@
         <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>13</v>
@@ -6936,13 +7438,13 @@
         <v>13</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
@@ -6953,19 +7455,19 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S65" t="s">
         <v>12</v>
       </c>
       <c r="T65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
@@ -6976,10 +7478,10 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>13</v>
@@ -6990,13 +7492,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G67" t="s">
         <v>7</v>
       </c>
       <c r="K67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T67" t="s">
         <v>12</v>
@@ -7004,7 +7506,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -7018,10 +7520,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
@@ -7029,7 +7531,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>13</v>
@@ -7037,7 +7539,305 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+      <c r="I75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s">
+        <v>3</v>
+      </c>
+      <c r="K75" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" t="s">
+        <v>157</v>
+      </c>
+      <c r="M75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>442</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>480</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>483</v>
+      </c>
+      <c r="I76" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
+        <v>494</v>
+      </c>
+      <c r="L76" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>443</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>484</v>
+      </c>
+      <c r="I78" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" t="s">
+        <v>7</v>
+      </c>
+      <c r="L78" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>92</v>
+      </c>
+      <c r="H79" t="s">
+        <v>485</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>445</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G83" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/POSS.xlsx
+++ b/POSS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="module admin" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="507">
   <si>
     <t>Admin</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>updated_by</t>
-  </si>
-  <si>
-    <t>AdmnEmails</t>
   </si>
   <si>
     <t>LeadSource</t>
@@ -1535,6 +1532,24 @@
   </si>
   <si>
     <t>UserStore</t>
+  </si>
+  <si>
+    <t>PositionStore</t>
+  </si>
+  <si>
+    <t>AdminEmails</t>
+  </si>
+  <si>
+    <t>Cấu hình kênh thông báo</t>
+  </si>
+  <si>
+    <t>Xem | sửa</t>
+  </si>
+  <si>
+    <t>AdminChannelNotify</t>
+  </si>
+  <si>
+    <t>settings</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1708,6 +1723,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2043,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B52"/>
+    <sheetView topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,583 +2079,594 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>392</v>
-      </c>
       <c r="E1" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="13" t="s">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>471</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="25" t="s">
-        <v>388</v>
+      <c r="A12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="26" t="s">
+        <v>387</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="13" t="s">
+      <c r="B18" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>368</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>371</v>
       </c>
+      <c r="C25" s="26" t="s">
+        <v>370</v>
+      </c>
       <c r="D25" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="13" t="s">
-        <v>387</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>414</v>
-      </c>
-    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="13" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="D36" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="16" t="s">
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="16" t="s">
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="16" t="s">
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="16" t="s">
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="16" t="s">
-        <v>458</v>
-      </c>
       <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="16" t="s">
-        <v>462</v>
-      </c>
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="19"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19" t="s">
+      <c r="D50" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="16" t="s">
-        <v>468</v>
-      </c>
       <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="E53" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2648,17 +2677,17 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A35:A52"/>
+    <mergeCell ref="A36:A53"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B35:B52"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="A18:A34"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B36:B53"/>
+    <mergeCell ref="B25:B35"/>
+    <mergeCell ref="A18:A35"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -2685,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2697,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="K19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2715,12 +2744,12 @@
     <col min="10" max="10" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -3137,13 +3166,13 @@
         <v>60</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>
@@ -3386,7 +3415,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -3421,7 +3450,7 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -3453,7 +3482,7 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>254</v>
@@ -3485,7 +3514,7 @@
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>255</v>
@@ -3517,7 +3546,7 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -3528,7 +3557,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -3542,7 +3571,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -3556,37 +3585,40 @@
         <v>250</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>256</v>
+        <v>502</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I28" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -3609,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -3624,18 +3656,21 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>93</v>
@@ -3659,10 +3694,13 @@
         <v>157</v>
       </c>
       <c r="K30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L30" t="s">
         <v>79</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -3694,13 +3732,16 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K31" t="s">
         <v>78</v>
       </c>
       <c r="L31" t="s">
         <v>78</v>
+      </c>
+      <c r="M31" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -3729,10 +3770,13 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3755,11 +3799,14 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -3776,25 +3823,28 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -3820,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
         <v>1</v>
@@ -3828,8 +3878,11 @@
       <c r="L35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3905,7 @@
         <v>157</v>
       </c>
       <c r="I36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -3863,8 +3916,11 @@
       <c r="L36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -3919,13 +3975,13 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3942,13 +3998,13 @@
         <v>95</v>
       </c>
       <c r="I39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3956,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -3971,9 +4027,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -3988,12 +4044,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -4002,12 +4058,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>238</v>
       </c>
       <c r="D43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -4016,12 +4072,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -4030,7 +4086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>157</v>
       </c>
@@ -4041,7 +4097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>9</v>
       </c>
@@ -4052,20 +4108,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
         <v>431</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D48" t="s">
-        <v>432</v>
       </c>
       <c r="G48" t="s">
         <v>252</v>
@@ -4076,7 +4132,7 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -4087,46 +4143,46 @@
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.35">
@@ -4134,26 +4190,26 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.35">
@@ -4174,7 +4230,7 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4187,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O78" sqref="O78"/>
+    <sheetView topLeftCell="J18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4293,7 +4349,7 @@
         <v>97</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -4393,7 +4449,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>78</v>
@@ -4514,7 +4570,7 @@
         <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -4648,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -4869,7 +4925,7 @@
         <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
@@ -4883,7 +4939,7 @@
         <v>215</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -4904,7 +4960,7 @@
         <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
@@ -4930,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="W14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -4950,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -4978,13 +5034,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -5055,7 +5111,7 @@
         <v>244</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>245</v>
@@ -5064,10 +5120,10 @@
         <v>249</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -5238,7 +5294,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -5321,7 +5377,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -5375,7 +5431,7 @@
         <v>182</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
@@ -5396,10 +5452,10 @@
         <v>7</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -5416,7 +5472,7 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -5458,7 +5514,7 @@
         <v>183</v>
       </c>
       <c r="S23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -5487,7 +5543,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -5567,7 +5623,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -5597,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>13</v>
@@ -5621,7 +5677,7 @@
         <v>145</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>13</v>
@@ -5632,10 +5688,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -5644,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -5685,10 +5741,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -5697,7 +5753,7 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
@@ -5715,7 +5771,7 @@
         <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R27" t="s">
         <v>77</v>
@@ -5732,10 +5788,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -5744,7 +5800,7 @@
         <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
@@ -5772,8 +5828,11 @@
       <c r="A29" t="s">
         <v>157</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -5802,7 +5861,7 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -5834,7 +5893,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -5845,8 +5904,8 @@
       <c r="N31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>78</v>
+      <c r="P31" t="s">
+        <v>499</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>13</v>
@@ -5863,7 +5922,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -5872,10 +5931,10 @@
         <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
+        <v>297</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="R32" t="s">
         <v>49</v>
@@ -5895,13 +5954,13 @@
         <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P33" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S33" t="s">
         <v>49</v>
@@ -5921,10 +5980,10 @@
         <v>208</v>
       </c>
       <c r="P34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S34" t="s">
         <v>184</v>
@@ -5946,12 +6005,14 @@
       <c r="K35" t="s">
         <v>167</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
       <c r="R35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
@@ -5965,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
@@ -5985,13 +6046,13 @@
         <v>164</v>
       </c>
       <c r="E37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
@@ -6005,14 +6066,14 @@
         <v>148</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P38" s="1"/>
       <c r="S38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
@@ -6026,7 +6087,7 @@
         <v>93</v>
       </c>
       <c r="S39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
@@ -6052,7 +6113,7 @@
         <v>126</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>127</v>
@@ -6085,7 +6146,7 @@
         <v>226</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T40" s="2" t="s">
         <v>137</v>
@@ -6100,16 +6161,16 @@
         <v>251</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y40" s="2" t="s">
         <v>253</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
@@ -6355,7 +6416,7 @@
         <v>195</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>17</v>
@@ -6532,7 +6593,7 @@
         <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -6541,7 +6602,7 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" t="s">
         <v>191</v>
@@ -6568,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O46" t="s">
         <v>145</v>
@@ -6719,13 +6780,13 @@
         <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q48" t="s">
         <v>17</v>
@@ -6878,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
@@ -6887,10 +6948,10 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P51" t="s">
         <v>17</v>
@@ -6908,7 +6969,7 @@
         <v>17</v>
       </c>
       <c r="Z51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
@@ -6934,10 +6995,10 @@
         <v>13</v>
       </c>
       <c r="N52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P52" t="s">
         <v>12</v>
@@ -6969,7 +7030,7 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s">
         <v>7</v>
@@ -6981,7 +7042,7 @@
         <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W53" t="s">
         <v>12</v>
@@ -6995,16 +7056,16 @@
         <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N54" t="s">
         <v>17</v>
@@ -7013,10 +7074,10 @@
         <v>17</v>
       </c>
       <c r="Q54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>13</v>
@@ -7045,16 +7106,16 @@
         <v>12</v>
       </c>
       <c r="Q55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W55" t="s">
         <v>252</v>
@@ -7071,10 +7132,10 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>13</v>
@@ -7083,7 +7144,7 @@
         <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S56" t="s">
         <v>1</v>
@@ -7095,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
@@ -7106,46 +7167,49 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I57" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="K57" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="N57" t="s">
+        <v>352</v>
+      </c>
+      <c r="O57" t="s">
         <v>353</v>
       </c>
-      <c r="O57" t="s">
-        <v>354</v>
-      </c>
       <c r="Q57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S57" t="s">
         <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U57" t="s">
         <v>3</v>
@@ -7165,7 +7229,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F58" t="s">
         <v>1</v>
@@ -7188,8 +7252,11 @@
       <c r="L58" t="s">
         <v>1</v>
       </c>
+      <c r="M58" t="s">
+        <v>1</v>
+      </c>
       <c r="Q58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S58" t="s">
         <v>3</v>
@@ -7201,7 +7268,7 @@
         <v>17</v>
       </c>
       <c r="W58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
@@ -7212,10 +7279,10 @@
         <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
         <v>157</v>
@@ -7224,7 +7291,7 @@
         <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I59" t="s">
         <v>78</v>
@@ -7238,11 +7305,14 @@
       <c r="L59" t="s">
         <v>78</v>
       </c>
+      <c r="M59" t="s">
+        <v>98</v>
+      </c>
       <c r="S59" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U59" t="s">
         <v>7</v>
@@ -7253,16 +7323,16 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
@@ -7285,8 +7355,11 @@
       <c r="L60" t="s">
         <v>3</v>
       </c>
+      <c r="M60" t="s">
+        <v>78</v>
+      </c>
       <c r="S60" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="T60" t="s">
         <v>167</v>
@@ -7295,21 +7368,21 @@
         <v>12</v>
       </c>
       <c r="W60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" t="s">
         <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -7318,7 +7391,7 @@
         <v>216</v>
       </c>
       <c r="H61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I61" t="s">
         <v>200</v>
@@ -7332,6 +7405,9 @@
       <c r="L61" t="s">
         <v>17</v>
       </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
       <c r="S61" t="s">
         <v>7</v>
       </c>
@@ -7344,13 +7420,13 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -7373,8 +7449,11 @@
       <c r="L62" t="s">
         <v>12</v>
       </c>
+      <c r="M62" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="S62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T62" t="s">
         <v>168</v>
@@ -7382,13 +7461,13 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
@@ -7412,24 +7491,24 @@
         <v>13</v>
       </c>
       <c r="S63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>13</v>
@@ -7441,7 +7520,7 @@
         <v>64</v>
       </c>
       <c r="S64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T64" t="s">
         <v>76</v>
@@ -7478,7 +7557,7 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K66" t="s">
         <v>108</v>
@@ -7492,13 +7571,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G67" t="s">
         <v>7</v>
       </c>
       <c r="K67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T67" t="s">
         <v>12</v>
@@ -7506,7 +7585,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -7520,10 +7599,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G69" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
@@ -7531,7 +7610,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>13</v>
@@ -7539,42 +7618,42 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="G73" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="I73" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="K73" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
@@ -7638,7 +7717,7 @@
         <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L75" t="s">
         <v>157</v>
@@ -7649,7 +7728,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -7658,13 +7737,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I76" t="s">
         <v>3</v>
@@ -7673,7 +7752,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L76" t="s">
         <v>3</v>
@@ -7684,7 +7763,7 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -7719,7 +7798,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -7731,13 +7810,13 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -7772,7 +7851,7 @@
         <v>92</v>
       </c>
       <c r="H79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -7792,7 +7871,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>13</v>

--- a/POSS.xlsx
+++ b/POSS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="module admin" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="507">
   <si>
     <t>Admin</t>
   </si>
@@ -290,9 +290,6 @@
     <t>BusinessType</t>
   </si>
   <si>
-    <t>StoreSetting</t>
-  </si>
-  <si>
     <t>Positions</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>area_id</t>
   </si>
   <si>
-    <t>StoreSettingGroup</t>
-  </si>
-  <si>
     <t>position_id</t>
   </si>
   <si>
@@ -365,21 +359,12 @@
     <t>shift_detail_id</t>
   </si>
   <si>
-    <t>UserActivity</t>
-  </si>
-  <si>
-    <t>Usernotification</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>ProductSub</t>
   </si>
   <si>
@@ -716,9 +701,6 @@
     <t>Overtime</t>
   </si>
   <si>
-    <t>Salary_shift</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -882,9 +864,6 @@
   </si>
   <si>
     <t>ProductMaterial</t>
-  </si>
-  <si>
-    <t>WarehouseMaterial</t>
   </si>
   <si>
     <t>tax</t>
@@ -1465,9 +1444,6 @@
     <t>ProductAttribute</t>
   </si>
   <si>
-    <t>ProductAttributeDetail</t>
-  </si>
-  <si>
     <t>attribute_id</t>
   </si>
   <si>
@@ -1489,9 +1465,6 @@
     <t>ProductType</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>AdminOrderStore</t>
   </si>
   <si>
@@ -1513,9 +1486,6 @@
     <t>unit_id</t>
   </si>
   <si>
-    <t>root_id</t>
-  </si>
-  <si>
     <t>StoreArea</t>
   </si>
   <si>
@@ -1550,6 +1520,36 @@
   </si>
   <si>
     <t>settings</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>SalaryShift</t>
+  </si>
+  <si>
+    <t>WarehouseDetail</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>MetarialFlow</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>SettingGroup</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>Notifications</t>
   </si>
 </sst>
 </file>
@@ -2079,33 +2079,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -2114,10 +2114,10 @@
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="13" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2125,7 +2125,7 @@
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="D4" s="13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="13" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -2142,13 +2142,13 @@
       <c r="A6" s="24"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -2156,7 +2156,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -2164,10 +2164,10 @@
       <c r="A8" s="24"/>
       <c r="B8" s="26"/>
       <c r="C8" s="13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -2175,54 +2175,54 @@
       <c r="A9" s="24"/>
       <c r="B9" s="26"/>
       <c r="C9" s="13" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
       <c r="B11" s="21"/>
       <c r="C11" s="16" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="26" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -2230,27 +2230,27 @@
       <c r="B13" s="22"/>
       <c r="C13" s="26"/>
       <c r="D13" s="16" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2258,10 +2258,10 @@
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="D15" s="13" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -2269,7 +2269,7 @@
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="13" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E16" s="13"/>
     </row>
@@ -2278,82 +2278,82 @@
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="D17" s="13" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="26"/>
       <c r="C19" s="13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="26"/>
       <c r="C20" s="13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="26"/>
       <c r="C21" s="13" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="26"/>
       <c r="C22" s="13" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="26" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -2361,23 +2361,23 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="13" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="20" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -2385,10 +2385,10 @@
       <c r="B26" s="21"/>
       <c r="C26" s="26"/>
       <c r="D26" s="13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -2396,10 +2396,10 @@
       <c r="B27" s="21"/>
       <c r="C27" s="26"/>
       <c r="D27" s="13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -2407,34 +2407,34 @@
       <c r="B28" s="21"/>
       <c r="C28" s="26"/>
       <c r="D28" s="13" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="21"/>
       <c r="C29" s="13" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="21"/>
       <c r="C30" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>381</v>
-      </c>
       <c r="E30" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2442,10 +2442,10 @@
       <c r="B31" s="21"/>
       <c r="C31" s="26"/>
       <c r="D31" s="13" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2453,60 +2453,60 @@
       <c r="B32" s="21"/>
       <c r="C32" s="26"/>
       <c r="D32" s="13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="19"/>
       <c r="B33" s="21"/>
       <c r="C33" s="13" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="21"/>
       <c r="C34" s="17" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="25"/>
       <c r="B35" s="22"/>
       <c r="C35" s="13" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2514,7 +2514,7 @@
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="16" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E37" s="16"/>
     </row>
@@ -2523,7 +2523,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E38" s="16"/>
     </row>
@@ -2532,7 +2532,7 @@
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E39" s="16"/>
     </row>
@@ -2541,7 +2541,7 @@
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="16" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E40" s="16"/>
     </row>
@@ -2550,7 +2550,7 @@
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="16" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E41" s="16"/>
     </row>
@@ -2559,7 +2559,7 @@
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="16" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E42" s="16"/>
     </row>
@@ -2568,7 +2568,7 @@
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="16" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E43" s="16"/>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
       <c r="D44" s="16" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E44" s="16"/>
     </row>
@@ -2585,10 +2585,10 @@
       <c r="A45" s="19"/>
       <c r="B45" s="21"/>
       <c r="C45" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>448</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>455</v>
       </c>
       <c r="E45" s="16"/>
     </row>
@@ -2597,7 +2597,7 @@
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
       <c r="D46" s="16" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E46" s="16"/>
     </row>
@@ -2605,10 +2605,10 @@
       <c r="A47" s="19"/>
       <c r="B47" s="21"/>
       <c r="C47" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E47" s="16"/>
     </row>
@@ -2617,7 +2617,7 @@
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="16" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E48" s="16"/>
     </row>
@@ -2626,7 +2626,7 @@
       <c r="B49" s="21"/>
       <c r="C49" s="22"/>
       <c r="D49" s="16" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E49" s="16"/>
     </row>
@@ -2634,10 +2634,10 @@
       <c r="A50" s="19"/>
       <c r="B50" s="21"/>
       <c r="C50" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E50" s="16"/>
     </row>
@@ -2646,7 +2646,7 @@
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="16" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E51" s="16"/>
     </row>
@@ -2655,7 +2655,7 @@
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
       <c r="D52" s="16" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E52" s="16"/>
     </row>
@@ -2664,7 +2664,7 @@
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="16" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E53" s="16"/>
     </row>
@@ -2714,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -2749,7 +2749,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -2790,7 +2790,7 @@
         <v>69</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -2995,7 +2995,7 @@
         <v>81</v>
       </c>
       <c r="M8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -3166,13 +3166,13 @@
         <v>60</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>63</v>
@@ -3190,7 +3190,7 @@
         <v>68</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -3295,13 +3295,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>80</v>
@@ -3395,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -3415,7 +3415,7 @@
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -3450,7 +3450,7 @@
         <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -3462,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -3482,10 +3482,10 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
         <v>73</v>
@@ -3514,10 +3514,10 @@
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I24" t="s">
         <v>74</v>
@@ -3546,7 +3546,7 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -3582,43 +3582,43 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="I28" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H29" t="s">
         <v>1</v>
@@ -3664,16 +3664,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -3682,7 +3682,7 @@
         <v>54</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H30" t="s">
         <v>25</v>
@@ -3691,10 +3691,10 @@
         <v>83</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="L30" t="s">
         <v>79</v>
@@ -3708,13 +3708,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H31" t="s">
         <v>78</v>
@@ -3732,7 +3732,7 @@
         <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K31" t="s">
         <v>78</v>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
@@ -3770,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>
@@ -3799,7 +3799,7 @@
         <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" t="s">
@@ -3823,25 +3823,25 @@
         <v>7</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J34" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>86</v>
       </c>
       <c r="M34" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -3855,7 +3855,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K35" t="s">
         <v>1</v>
@@ -3887,7 +3887,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -3899,19 +3899,19 @@
         <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L36" t="s">
         <v>3</v>
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -3937,10 +3937,10 @@
         <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -3966,16 +3966,16 @@
         <v>13</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>7</v>
@@ -3995,10 +3995,10 @@
         <v>48</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L39" t="s">
         <v>12</v>
@@ -4012,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -4046,10 +4046,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G45" t="s">
         <v>7</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -4121,10 +4121,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="G48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -4143,46 +4143,46 @@
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H50" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G51" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H51" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="H52" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G53" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H53" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.35">
@@ -4190,26 +4190,26 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H54" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H55" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G56" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H56" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.35">
@@ -4225,12 +4225,12 @@
         <v>64</v>
       </c>
       <c r="H58" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView topLeftCell="J18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4278,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -4286,7 +4286,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
@@ -4295,61 +4295,61 @@
         <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>229</v>
+        <v>498</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>87</v>
+        <v>504</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>285</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -4443,31 +4443,31 @@
         <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
         <v>3</v>
@@ -4476,10 +4476,10 @@
         <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>78</v>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -4499,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P6" t="s">
         <v>21</v>
@@ -4562,15 +4562,15 @@
         <v>17</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -4597,19 +4597,19 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" t="s">
         <v>225</v>
-      </c>
-      <c r="N7" t="s">
-        <v>223</v>
-      </c>
-      <c r="O7" t="s">
-        <v>231</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
@@ -4633,7 +4633,7 @@
         <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
@@ -4653,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -4665,10 +4665,10 @@
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>77</v>
@@ -4677,10 +4677,10 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P8" t="s">
         <v>19</v>
@@ -4704,7 +4704,7 @@
         <v>19</v>
       </c>
       <c r="W8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
@@ -4724,7 +4724,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
@@ -4736,7 +4736,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -4748,10 +4748,10 @@
         <v>12</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P9" t="s">
         <v>17</v>
@@ -4789,7 +4789,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -4798,10 +4798,10 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -4810,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O10" t="s">
         <v>76</v>
@@ -4839,13 +4839,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -4857,7 +4857,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -4866,7 +4866,7 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P11" t="s">
         <v>12</v>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -4904,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
         <v>12</v>
@@ -4913,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q12" t="s">
         <v>12</v>
@@ -4925,27 +4925,27 @@
         <v>50</v>
       </c>
       <c r="W12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>13</v>
@@ -4960,12 +4960,12 @@
         <v>51</v>
       </c>
       <c r="W13" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -4986,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="W14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -5006,7 +5006,7 @@
         <v>7</v>
       </c>
       <c r="W15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -5034,13 +5034,13 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="W17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
@@ -5051,79 +5051,79 @@
         <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="M18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="O18" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
@@ -5220,13 +5220,13 @@
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>78</v>
@@ -5235,10 +5235,10 @@
         <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>78</v>
@@ -5247,7 +5247,7 @@
         <v>48</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>78</v>
@@ -5271,13 +5271,13 @@
         <v>78</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>78</v>
@@ -5289,12 +5289,12 @@
         <v>2</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -5306,10 +5306,10 @@
         <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -5318,19 +5318,19 @@
         <v>3</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q21" t="s">
         <v>3</v>
@@ -5354,30 +5354,30 @@
         <v>48</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -5392,7 +5392,7 @@
         <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
@@ -5401,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
@@ -5410,7 +5410,7 @@
         <v>48</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s">
         <v>7</v>
@@ -5422,16 +5422,16 @@
         <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q22" t="s">
         <v>6</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
@@ -5452,10 +5452,10 @@
         <v>7</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
@@ -5472,7 +5472,7 @@
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -5505,16 +5505,16 @@
         <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="S23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="T23" t="s">
         <v>17</v>
@@ -5523,7 +5523,7 @@
         <v>17</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="W23" s="10" t="s">
         <v>50</v>
@@ -5532,18 +5532,18 @@
         <v>17</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Z23" t="s">
         <v>12</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -5576,7 +5576,7 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>13</v>
@@ -5594,16 +5594,16 @@
         <v>7</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="T24" t="s">
         <v>72</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V24" t="s">
         <v>12</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>15</v>
@@ -5653,7 +5653,7 @@
         <v>12</v>
       </c>
       <c r="N25" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>13</v>
@@ -5668,16 +5668,16 @@
         <v>17</v>
       </c>
       <c r="S25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T25" t="s">
         <v>73</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>13</v>
@@ -5688,10 +5688,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -5700,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -5753,25 +5753,25 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R27" t="s">
         <v>77</v>
@@ -5788,28 +5788,28 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R28" t="s">
         <v>7</v>
@@ -5826,34 +5826,34 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
       </c>
       <c r="L29" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
       </c>
       <c r="T29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U29" t="s">
         <v>76</v>
@@ -5861,16 +5861,16 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s">
         <v>12</v>
@@ -5882,10 +5882,10 @@
         <v>12</v>
       </c>
       <c r="S30" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="T30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U30" t="s">
         <v>77</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
         <v>49</v>
@@ -5905,7 +5905,7 @@
         <v>13</v>
       </c>
       <c r="P31" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>13</v>
@@ -5922,16 +5922,16 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
         <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>78</v>
@@ -5954,13 +5954,13 @@
         <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s">
         <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S33" t="s">
         <v>49</v>
@@ -5977,42 +5977,42 @@
         <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P34" t="s">
         <v>7</v>
       </c>
       <c r="R34" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="S34" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P35" t="s">
         <v>12</v>
       </c>
       <c r="R35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="S35" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.35">
@@ -6026,13 +6026,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="S36" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.35">
@@ -6040,19 +6040,19 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
+        <v>290</v>
+      </c>
+      <c r="K37" t="s">
         <v>297</v>
       </c>
-      <c r="K37" t="s">
-        <v>304</v>
-      </c>
       <c r="S37" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.35">
@@ -6060,128 +6060,128 @@
         <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
         <v>299</v>
-      </c>
-      <c r="K38" t="s">
-        <v>306</v>
       </c>
       <c r="P38" s="1"/>
       <c r="S38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -6261,7 +6261,7 @@
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -6270,13 +6270,13 @@
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>78</v>
@@ -6309,10 +6309,10 @@
         <v>78</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T42" t="s">
         <v>48</v>
@@ -6344,16 +6344,16 @@
         <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -6362,7 +6362,7 @@
         <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
         <v>3</v>
@@ -6380,13 +6380,13 @@
         <v>51</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>2</v>
@@ -6395,7 +6395,7 @@
         <v>3</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>78</v>
@@ -6407,16 +6407,16 @@
         <v>17</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>17</v>
@@ -6427,13 +6427,13 @@
         <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
         <v>70</v>
@@ -6442,10 +6442,10 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -6463,13 +6463,13 @@
         <v>81</v>
       </c>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q44" t="s">
         <v>3</v>
@@ -6481,7 +6481,7 @@
         <v>7</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U44" t="s">
         <v>17</v>
@@ -6490,7 +6490,7 @@
         <v>7</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X44" t="s">
         <v>17</v>
@@ -6516,7 +6516,7 @@
         <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
         <v>71</v>
@@ -6528,7 +6528,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -6546,13 +6546,13 @@
         <v>40</v>
       </c>
       <c r="N45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Q45" t="s">
         <v>4</v>
@@ -6564,7 +6564,7 @@
         <v>12</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="U45" t="s">
         <v>7</v>
@@ -6573,7 +6573,7 @@
         <v>12</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X45" t="s">
         <v>7</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -6602,10 +6602,10 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -6629,13 +6629,13 @@
         <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="O46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q46" t="s">
         <v>5</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -6685,10 +6685,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -6709,13 +6709,13 @@
         <v>12</v>
       </c>
       <c r="N47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q47" t="s">
         <v>6</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
@@ -6756,19 +6756,19 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" t="s">
         <v>193</v>
-      </c>
-      <c r="H48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" t="s">
-        <v>198</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
@@ -6780,19 +6780,19 @@
         <v>13</v>
       </c>
       <c r="N48" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="O48" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P48" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="Q48" t="s">
         <v>17</v>
       </c>
       <c r="R48" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="T48" t="s">
         <v>49</v>
@@ -6801,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>7</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
         <v>73</v>
@@ -6818,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
@@ -6860,7 +6860,7 @@
         <v>5</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Z49" t="s">
         <v>12</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
         <v>74</v>
@@ -6904,13 +6904,13 @@
         <v>7</v>
       </c>
       <c r="Q50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" t="s">
         <v>17</v>
       </c>
       <c r="T50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="W50" t="s">
         <v>6</v>
@@ -6924,10 +6924,10 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -6939,7 +6939,7 @@
         <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>13</v>
@@ -6948,10 +6948,10 @@
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="O51" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P51" t="s">
         <v>17</v>
@@ -6969,12 +6969,12 @@
         <v>17</v>
       </c>
       <c r="Z51" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
@@ -6995,10 +6995,10 @@
         <v>13</v>
       </c>
       <c r="N52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P52" t="s">
         <v>12</v>
@@ -7021,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -7030,7 +7030,7 @@
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N53" t="s">
         <v>7</v>
@@ -7042,7 +7042,7 @@
         <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="W53" t="s">
         <v>12</v>
@@ -7056,16 +7056,16 @@
         <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H54" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="N54" t="s">
         <v>17</v>
@@ -7074,10 +7074,10 @@
         <v>17</v>
       </c>
       <c r="Q54" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="S54" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="W54" s="1" t="s">
         <v>13</v>
@@ -7097,7 +7097,7 @@
         <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N55" t="s">
         <v>12</v>
@@ -7106,19 +7106,19 @@
         <v>12</v>
       </c>
       <c r="Q55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="W55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
@@ -7129,13 +7129,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>13</v>
@@ -7144,7 +7144,7 @@
         <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="S56" t="s">
         <v>1</v>
@@ -7156,60 +7156,60 @@
         <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="J57" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="N57" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="O57" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q57" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="S57" t="s">
         <v>48</v>
       </c>
       <c r="T57" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="U57" t="s">
         <v>3</v>
@@ -7223,13 +7223,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F58" t="s">
         <v>1</v>
@@ -7256,19 +7256,19 @@
         <v>1</v>
       </c>
       <c r="Q58" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="S58" t="s">
         <v>3</v>
       </c>
       <c r="T58" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="U58" t="s">
         <v>17</v>
       </c>
       <c r="W58" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
@@ -7276,22 +7276,22 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
         <v>78</v>
       </c>
       <c r="H59" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I59" t="s">
         <v>78</v>
@@ -7306,51 +7306,51 @@
         <v>78</v>
       </c>
       <c r="M59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S59" t="s">
         <v>17</v>
       </c>
       <c r="T59" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="U59" t="s">
         <v>7</v>
       </c>
       <c r="W59" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J60" t="s">
         <v>64</v>
       </c>
       <c r="K60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s">
         <v>3</v>
@@ -7359,48 +7359,48 @@
         <v>78</v>
       </c>
       <c r="S60" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="T60" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U60" t="s">
         <v>12</v>
       </c>
       <c r="W60" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
         <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H61" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J61" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -7420,28 +7420,28 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K62" t="s">
         <v>3</v>
@@ -7453,27 +7453,27 @@
         <v>13</v>
       </c>
       <c r="S62" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="T62" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
@@ -7485,30 +7485,30 @@
         <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="S63" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="T63" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D64" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G64" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>13</v>
@@ -7520,7 +7520,7 @@
         <v>64</v>
       </c>
       <c r="S64" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="T64" t="s">
         <v>76</v>
@@ -7534,13 +7534,13 @@
         <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S65" t="s">
         <v>12</v>
@@ -7557,10 +7557,10 @@
         <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>13</v>
@@ -7571,13 +7571,13 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G67" t="s">
         <v>7</v>
       </c>
       <c r="K67" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="T67" t="s">
         <v>12</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -7599,10 +7599,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D69" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G69" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K69" t="s">
         <v>12</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G70" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>13</v>
@@ -7618,42 +7618,45 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G71" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="L73" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>495</v>
-      </c>
       <c r="M73" s="9" t="s">
-        <v>500</v>
+        <v>490</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.35">
@@ -7688,6 +7691,9 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7702,13 +7708,13 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I75" t="s">
         <v>78</v>
@@ -7717,18 +7723,21 @@
         <v>3</v>
       </c>
       <c r="K75" t="s">
-        <v>494</v>
+        <v>142</v>
       </c>
       <c r="L75" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M75" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="N75" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -7737,13 +7746,13 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="I76" t="s">
         <v>3</v>
@@ -7752,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L76" t="s">
         <v>3</v>
@@ -7760,10 +7769,13 @@
       <c r="M76" t="s">
         <v>78</v>
       </c>
+      <c r="N76" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -7772,7 +7784,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G77" t="s">
         <v>5</v>
@@ -7793,12 +7805,15 @@
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="N77" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -7810,13 +7825,13 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I78" t="s">
         <v>7</v>
@@ -7832,6 +7847,9 @@
       </c>
       <c r="M78" t="s">
         <v>7</v>
+      </c>
+      <c r="N78" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.35">
@@ -7848,10 +7866,10 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -7867,11 +7885,14 @@
       </c>
       <c r="M79" t="s">
         <v>12</v>
+      </c>
+      <c r="N79" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>13</v>
@@ -7900,23 +7921,35 @@
       <c r="M80" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="N80" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G81" t="s">
         <v>7</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="N81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="N82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="7:14" x14ac:dyDescent="0.35">
       <c r="G83" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="N83" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
